--- a/Extension code/Forecasting models/Saved preds/roos.xlsx
+++ b/Extension code/Forecasting models/Saved preds/roos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.4670980038065089</v>
+        <v>-0.1756281451895794</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4670980038065089</v>
+        <v>-0.1756281451895794</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.5579970431312533</v>
+        <v>-0.1799174991672754</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5579970431312533</v>
+        <v>-0.1799174991672754</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -537,16 +537,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.5809025610697542</v>
+        <v>-0.2035967574678614</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5809025610697542</v>
+        <v>-0.2035967574678614</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,16 +563,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.5673914630671424</v>
+        <v>-0.1652658091577826</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5673914630671424</v>
+        <v>-0.1652658091577826</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.5256700632255944</v>
+        <v>-0.2037486743210926</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5256700632255944</v>
+        <v>-0.2037486743210926</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -615,16 +615,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.4363980825986185</v>
+        <v>-0.2044203670986406</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4363980825986185</v>
+        <v>-0.2044203670986406</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -641,16 +641,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.4670980038065089</v>
+        <v>-0.1756281451895794</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.282489576527764</v>
+        <v>-0.1097386996596317</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.5579970431312533</v>
+        <v>-0.1799174991672754</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3540498605391926</v>
+        <v>-0.1120167820971036</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.5809025610697542</v>
+        <v>-0.2035967574678614</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3696700304132563</v>
+        <v>-0.12770907647915</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.5673914630671424</v>
+        <v>-0.1652658091577826</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3614835257605136</v>
+        <v>-0.1017158187707263</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -745,16 +745,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.5256700632255944</v>
+        <v>-0.2037486743210926</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3317607010455568</v>
+        <v>-0.1279413671201508</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.4363980825986185</v>
+        <v>-0.2044203670986406</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2673244868705695</v>
+        <v>-0.1260976512032206</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -797,16 +797,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.4670980038065089</v>
+        <v>-0.1756281451895794</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1431037668004309</v>
+        <v>-0.05850419361805281</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -823,16 +823,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-0.5579970431312533</v>
+        <v>-0.1799174991672754</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1930679591532971</v>
+        <v>-0.05939695987916727</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -849,16 +849,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.5809025610697542</v>
+        <v>-0.2035967574678614</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2024420933494646</v>
+        <v>-0.06848038990493577</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -875,16 +875,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.5673914630671424</v>
+        <v>-0.1652658091577826</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1982823028137803</v>
+        <v>-0.05298818711541031</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -901,16 +901,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.5256700632255944</v>
+        <v>-0.2037486743210926</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1795125697812781</v>
+        <v>-0.06871415233298794</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -927,16 +927,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-0.4363980825986185</v>
+        <v>-0.2044203670986406</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1382336078614503</v>
+        <v>-0.06592001805497394</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -953,16 +953,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.4670980038065089</v>
+        <v>-0.1756281451895794</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.04894057462450951</v>
+        <v>-0.02192462706484211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -979,16 +979,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-0.5579970431312533</v>
+        <v>-0.1799174991672754</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.07505133897356608</v>
+        <v>-0.02205803251346605</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-0.5809025610697542</v>
+        <v>-0.2035967574678614</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.07921874987837918</v>
+        <v>-0.02591069774521904</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1031,16 +1031,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.5673914630671424</v>
+        <v>-0.1652658091577826</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.07778779422694249</v>
+        <v>-0.01908291419183494</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-0.5256700632255944</v>
+        <v>-0.2037486743210926</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.06892566943275957</v>
+        <v>-0.02606702995960442</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1083,16 +1083,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-0.4363980825986185</v>
+        <v>-0.2044203670986406</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.04912544557126064</v>
+        <v>-0.02388746765390048</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1109,16 +1109,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-0.1339225955886003</v>
+        <v>-0.1618659803126392</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1339225955886003</v>
+        <v>-0.1618659803126392</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1135,16 +1135,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-0.2570357971124533</v>
+        <v>-0.1455271945769094</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.2570357971124533</v>
+        <v>-0.1455271945769094</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1161,16 +1161,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-0.3547389652185116</v>
+        <v>-0.124243119412208</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.3547389652185116</v>
+        <v>-0.124243119412208</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1187,16 +1187,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-0.38991627141773</v>
+        <v>-0.1118654302613602</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.38991627141773</v>
+        <v>-0.1118654302613602</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1213,16 +1213,16 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-0.3643422943385612</v>
+        <v>-0.06752315226646055</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.3643422943385612</v>
+        <v>-0.06752315226646055</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1239,16 +1239,16 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-0.3012125326378776</v>
+        <v>-0.0382936212350089</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.3012125326378776</v>
+        <v>-0.0382936212350089</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-0.1339225955886003</v>
+        <v>-0.1618659803126392</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.02611223594516154</v>
+        <v>-0.08721137313712179</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1291,16 +1291,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-0.2570357971124533</v>
+        <v>-0.1455271945769094</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.1274620352743923</v>
+        <v>-0.07757937801242232</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-0.3547389652185116</v>
+        <v>-0.124243119412208</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2000554213798604</v>
+        <v>-0.05969163131941846</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1343,16 +1343,16 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-0.38991627141773</v>
+        <v>-0.1118654302613602</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2215511547613505</v>
+        <v>-0.04362576834208909</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-0.3643422943385612</v>
+        <v>-0.06752315226646055</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.1999750789162982</v>
+        <v>-0.00223298790733395</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1395,16 +1395,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-0.3012125326378776</v>
+        <v>-0.0382936212350089</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.1569515591987543</v>
+        <v>0.03311958267524373</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1421,16 +1421,16 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-0.1339225955886003</v>
+        <v>-0.1618659803126392</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03214498320075154</v>
+        <v>-0.03534884069317612</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1447,16 +1447,16 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-0.2570357971124533</v>
+        <v>-0.1455271945769094</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.04143148180962952</v>
+        <v>-0.030675573394775</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-0.3547389652185116</v>
+        <v>-0.124243119412208</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.08937107923055798</v>
+        <v>-0.01746728205312076</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1499,16 +1499,16 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-0.38991627141773</v>
+        <v>-0.1118654302613602</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.1004434039729354</v>
+        <v>-0.002234975992105204</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-0.3643422943385612</v>
+        <v>-0.06752315226646055</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.08446229138578354</v>
+        <v>0.0307842589234516</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1551,16 +1551,16 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-0.3012125326378776</v>
+        <v>-0.0382936212350089</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.05866247927940016</v>
+        <v>0.06330625418449598</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1577,16 +1577,16 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-0.1339225955886003</v>
+        <v>-0.1618659803126392</v>
       </c>
       <c r="F44" t="n">
-        <v>0.04084906184913861</v>
+        <v>-0.006278382980802188</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1603,16 +1603,16 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-0.2570357971124533</v>
+        <v>-0.1455271945769094</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001055863281834601</v>
+        <v>-0.004815780723967711</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1629,16 +1629,16 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-0.3547389652185116</v>
+        <v>-0.124243119412208</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.02268593877060443</v>
+        <v>0.002429928386685543</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1655,16 +1655,16 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-0.38991627141773</v>
+        <v>-0.1118654302613602</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.02659301905248523</v>
+        <v>0.01230694678859112</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1681,16 +1681,16 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-0.3643422943385612</v>
+        <v>-0.06752315226646055</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.01780393174701755</v>
+        <v>0.03152858822589633</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>Regression</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1707,1258 +1707,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-0.3012125326378776</v>
+        <v>-0.0382936212350089</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.006345292879815556</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2 y</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>-0.4670980038065089</v>
-      </c>
-      <c r="F50" t="n">
-        <v>-0.4670980038065089</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>3 y</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>-0.5579970431312533</v>
-      </c>
-      <c r="F51" t="n">
-        <v>-0.5579970431312533</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>4 y</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>-0.5809025610697542</v>
-      </c>
-      <c r="F52" t="n">
-        <v>-0.5809025610697542</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>5 y</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>-0.5673914630671424</v>
-      </c>
-      <c r="F53" t="n">
-        <v>-0.5673914630671424</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>7 y</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>-0.5256700632255944</v>
-      </c>
-      <c r="F54" t="n">
-        <v>-0.5256700632255944</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>10 y</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>-0.4363980825986185</v>
-      </c>
-      <c r="F55" t="n">
-        <v>-0.4363980825986185</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2 y</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>-0.4670980038065089</v>
-      </c>
-      <c r="F56" t="n">
-        <v>-0.282489576527764</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>3 y</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>-0.5579970431312533</v>
-      </c>
-      <c r="F57" t="n">
-        <v>-0.3540498605391926</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>4 y</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>-0.5809025610697542</v>
-      </c>
-      <c r="F58" t="n">
-        <v>-0.3696700304132563</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>5 y</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>-0.5673914630671424</v>
-      </c>
-      <c r="F59" t="n">
-        <v>-0.3614835257605136</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>7 y</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>-0.5256700632255944</v>
-      </c>
-      <c r="F60" t="n">
-        <v>-0.3317607010455568</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>10 y</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>-0.4363980825986185</v>
-      </c>
-      <c r="F61" t="n">
-        <v>-0.2673244868705695</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2 y</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>-0.4670980038065089</v>
-      </c>
-      <c r="F62" t="n">
-        <v>-0.1431037668004309</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>3 y</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>-0.5579970431312533</v>
-      </c>
-      <c r="F63" t="n">
-        <v>-0.1930679591532971</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>4 y</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>-0.5809025610697542</v>
-      </c>
-      <c r="F64" t="n">
-        <v>-0.2024420933494646</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>5 y</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>-0.5673914630671424</v>
-      </c>
-      <c r="F65" t="n">
-        <v>-0.1982823028137803</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>7 y</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>-0.5256700632255944</v>
-      </c>
-      <c r="F66" t="n">
-        <v>-0.1795125697812781</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>10 y</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>-0.4363980825986185</v>
-      </c>
-      <c r="F67" t="n">
-        <v>-0.1382336078614503</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2 y</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>-0.4670980038065089</v>
-      </c>
-      <c r="F68" t="n">
-        <v>-0.04894057462450951</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>3 y</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>-0.5579970431312533</v>
-      </c>
-      <c r="F69" t="n">
-        <v>-0.07505133897356608</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>4 y</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>-0.5809025610697542</v>
-      </c>
-      <c r="F70" t="n">
-        <v>-0.07921874987837918</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>5 y</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>-0.5673914630671424</v>
-      </c>
-      <c r="F71" t="n">
-        <v>-0.07778779422694249</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>7 y</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>-0.5256700632255944</v>
-      </c>
-      <c r="F72" t="n">
-        <v>-0.06892566943275957</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>10 y</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>-0.4363980825986185</v>
-      </c>
-      <c r="F73" t="n">
-        <v>-0.04912544557126064</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2 y</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>-0.1339225955886003</v>
-      </c>
-      <c r="F74" t="n">
-        <v>-0.1339225955886003</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>3 y</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>-0.2570357971124533</v>
-      </c>
-      <c r="F75" t="n">
-        <v>-0.2570357971124533</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>4 y</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>-0.3547389652185116</v>
-      </c>
-      <c r="F76" t="n">
-        <v>-0.3547389652185116</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>5 y</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>-0.38991627141773</v>
-      </c>
-      <c r="F77" t="n">
-        <v>-0.38991627141773</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>7 y</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>-0.3643422943385612</v>
-      </c>
-      <c r="F78" t="n">
-        <v>-0.3643422943385612</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>10 y</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>-0.3012125326378776</v>
-      </c>
-      <c r="F79" t="n">
-        <v>-0.3012125326378776</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2 y</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>-0.1339225955886003</v>
-      </c>
-      <c r="F80" t="n">
-        <v>-0.02611223594516154</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>3 y</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>-0.2570357971124533</v>
-      </c>
-      <c r="F81" t="n">
-        <v>-0.1274620352743923</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>4 y</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>-0.3547389652185116</v>
-      </c>
-      <c r="F82" t="n">
-        <v>-0.2000554213798604</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>5 y</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>-0.38991627141773</v>
-      </c>
-      <c r="F83" t="n">
-        <v>-0.2215511547613505</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>7 y</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>-0.3643422943385612</v>
-      </c>
-      <c r="F84" t="n">
-        <v>-0.1999750789162982</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>10 y</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>-0.3012125326378776</v>
-      </c>
-      <c r="F85" t="n">
-        <v>-0.1569515591987543</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2 y</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>-0.1339225955886003</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.03214498320075154</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>3 y</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>-0.2570357971124533</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-0.04143148180962952</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>4 y</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>-0.3547389652185116</v>
-      </c>
-      <c r="F88" t="n">
-        <v>-0.08937107923055798</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>5 y</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>-0.38991627141773</v>
-      </c>
-      <c r="F89" t="n">
-        <v>-0.1004434039729354</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>7 y</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>-0.3643422943385612</v>
-      </c>
-      <c r="F90" t="n">
-        <v>-0.08446229138578354</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>10 y</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>-0.3012125326378776</v>
-      </c>
-      <c r="F91" t="n">
-        <v>-0.05866247927940016</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>2 y</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>-0.1339225955886003</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.04084906184913861</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>3 y</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>-0.2570357971124533</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.001055863281834601</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>4 y</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>-0.3547389652185116</v>
-      </c>
-      <c r="F94" t="n">
-        <v>-0.02268593877060443</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>5 y</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>-0.38991627141773</v>
-      </c>
-      <c r="F95" t="n">
-        <v>-0.02659301905248523</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>7 y</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>-0.3643422943385612</v>
-      </c>
-      <c r="F96" t="n">
-        <v>-0.01780393174701755</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Macro</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>10 y</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>-0.3012125326378776</v>
-      </c>
-      <c r="F97" t="n">
-        <v>-0.006345292879815556</v>
+        <v>0.05226639329274796</v>
       </c>
     </row>
   </sheetData>

--- a/Extension code/Forecasting models/Saved preds/roos.xlsx
+++ b/Extension code/Forecasting models/Saved preds/roos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeur-my.sharepoint.com/personal/594941jc_eur_nl/Documents/Desktop/BondRiskML/Extension code/Forecasting models/Saved preds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_2E1913A5D320DE1EC3982B11595ED87656CD25E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F63D23C-1E53-47F9-B1DA-0C2E85E15912}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_426513BED3F0515C37592811595ED87656CD4578" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14CADA9B-CA90-4135-818A-6DFCA18CE2F6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,13 +96,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,13 +140,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,11 +452,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -484,11 +494,11 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>-0.17562814518957939</v>
+      <c r="E2" s="2">
+        <v>-2.0256362565757909E-2</v>
       </c>
       <c r="F2">
-        <v>-0.17562814518957939</v>
+        <v>-2.0256362565757909E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -504,11 +514,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>-0.1799174991672754</v>
+      <c r="E3" s="2">
+        <v>-2.7458534682455401E-2</v>
       </c>
       <c r="F3">
-        <v>-0.1799174991672754</v>
+        <v>-2.7458534682455401E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -524,11 +534,11 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>-0.20359675746786141</v>
+      <c r="E4" s="2">
+        <v>-4.2334293420800417E-2</v>
       </c>
       <c r="F4">
-        <v>-0.20359675746786141</v>
+        <v>-4.2334293420800417E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -544,11 +554,11 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
-        <v>-0.16526580915778261</v>
+      <c r="E5" s="2">
+        <v>-6.1520983103698468E-2</v>
       </c>
       <c r="F5">
-        <v>-0.16526580915778261</v>
+        <v>-6.1520983103698468E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -564,11 +574,11 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6">
-        <v>-0.20374867432109259</v>
+      <c r="E6" s="2">
+        <v>-9.4519608981163517E-2</v>
       </c>
       <c r="F6">
-        <v>-0.20374867432109259</v>
+        <v>-9.4519608981163517E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -584,11 +594,11 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7">
-        <v>-0.20442036709864059</v>
+      <c r="E7" s="2">
+        <v>-0.16019433341580541</v>
       </c>
       <c r="F7">
-        <v>-0.20442036709864059</v>
+        <v>-0.16019433341580541</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -605,10 +615,10 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>-0.17562814518957939</v>
+        <v>-2.0256362565757909E-2</v>
       </c>
       <c r="F8" s="2">
-        <v>-0.10973869965963171</v>
+        <v>3.9162651885734423E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -625,10 +635,10 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>-0.1799174991672754</v>
+        <v>-2.7458534682455401E-2</v>
       </c>
       <c r="F9" s="2">
-        <v>-0.1120167820971036</v>
+        <v>3.0078080803734971E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -645,10 +655,10 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <v>-0.20359675746786141</v>
+        <v>-4.2334293420800417E-2</v>
       </c>
       <c r="F10" s="2">
-        <v>-0.12770907647915</v>
+        <v>1.5881838897594869E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -665,10 +675,10 @@
         <v>11</v>
       </c>
       <c r="E11">
-        <v>-0.16526580915778261</v>
+        <v>-6.1520983103698468E-2</v>
       </c>
       <c r="F11" s="2">
-        <v>-0.1017158187707263</v>
+        <v>-3.0172481735013519E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -685,10 +695,10 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <v>-0.20374867432109259</v>
+        <v>-9.4519608981163517E-2</v>
       </c>
       <c r="F12" s="2">
-        <v>-0.12794136712015081</v>
+        <v>-3.0899046757985719E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -705,10 +715,10 @@
         <v>13</v>
       </c>
       <c r="E13">
-        <v>-0.20442036709864059</v>
+        <v>-0.16019433341580541</v>
       </c>
       <c r="F13" s="2">
-        <v>-0.12609765120322061</v>
+        <v>-8.2396271429023171E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -725,10 +735,10 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>-0.17562814518957939</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-5.8504193618052813E-2</v>
+        <v>-2.0256362565757909E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6.2345050463858083E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -745,10 +755,10 @@
         <v>9</v>
       </c>
       <c r="E15">
-        <v>-0.1799174991672754</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-5.9396959879167273E-2</v>
+        <v>-2.7458534682455401E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5.3833375079541002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -765,10 +775,10 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>-0.20359675746786141</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-6.8480389904935768E-2</v>
+        <v>-4.2334293420800417E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.2342931907193397E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -785,10 +795,10 @@
         <v>11</v>
       </c>
       <c r="E17">
-        <v>-0.16526580915778261</v>
-      </c>
-      <c r="F17" s="2">
-        <v>-5.2988187115410312E-2</v>
+        <v>-6.1520983103698468E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2.6737493987180731E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -805,10 +815,10 @@
         <v>12</v>
       </c>
       <c r="E18">
-        <v>-0.20374867432109259</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-6.8714152332987943E-2</v>
+        <v>-9.4519608981163517E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6.0610754799340638E-3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -825,10 +835,10 @@
         <v>13</v>
       </c>
       <c r="E19">
-        <v>-0.20442036709864059</v>
-      </c>
-      <c r="F19" s="2">
-        <v>-6.5920018054973939E-2</v>
+        <v>-0.16019433341580541</v>
+      </c>
+      <c r="F19" s="3">
+        <v>-2.9764528530795031E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -845,10 +855,10 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>-0.17562814518957939</v>
+        <v>-2.0256362565757909E-2</v>
       </c>
       <c r="F20">
-        <v>-2.1924627064842109E-2</v>
+        <v>4.9290833168613379E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -865,10 +875,10 @@
         <v>9</v>
       </c>
       <c r="E21">
-        <v>-0.1799174991672754</v>
+        <v>-2.7458534682455401E-2</v>
       </c>
       <c r="F21">
-        <v>-2.2058032513466049E-2</v>
+        <v>4.3807348144962573E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -885,10 +895,10 @@
         <v>10</v>
       </c>
       <c r="E22">
-        <v>-0.20359675746786141</v>
+        <v>-4.2334293420800417E-2</v>
       </c>
       <c r="F22">
-        <v>-2.5910697745219039E-2</v>
+        <v>3.7048985607995077E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -905,10 +915,10 @@
         <v>11</v>
       </c>
       <c r="E23">
-        <v>-0.16526580915778261</v>
+        <v>-6.1520983103698468E-2</v>
       </c>
       <c r="F23">
-        <v>-1.908291419183494E-2</v>
+        <v>2.7743243378347882E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -925,10 +935,10 @@
         <v>12</v>
       </c>
       <c r="E24">
-        <v>-0.20374867432109259</v>
+        <v>-9.4519608981163517E-2</v>
       </c>
       <c r="F24">
-        <v>-2.6067029959604419E-2</v>
+        <v>1.6360757732595928E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -945,10 +955,10 @@
         <v>13</v>
       </c>
       <c r="E25">
-        <v>-0.20442036709864059</v>
+        <v>-0.16019433341580541</v>
       </c>
       <c r="F25">
-        <v>-2.3887467653900481E-2</v>
+        <v>-2.299104721120715E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -964,11 +974,11 @@
       <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="E26">
-        <v>-0.16186598031263921</v>
+      <c r="E26" s="2">
+        <v>-0.1031159768732697</v>
       </c>
       <c r="F26">
-        <v>-0.16186598031263921</v>
+        <v>-0.1031159768732697</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -984,11 +994,11 @@
       <c r="D27" t="s">
         <v>9</v>
       </c>
-      <c r="E27">
-        <v>-0.14552719457690941</v>
+      <c r="E27" s="2">
+        <v>-0.1480034077540662</v>
       </c>
       <c r="F27">
-        <v>-0.14552719457690941</v>
+        <v>-0.1480034077540662</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1004,11 +1014,11 @@
       <c r="D28" t="s">
         <v>10</v>
       </c>
-      <c r="E28">
-        <v>-0.124243119412208</v>
+      <c r="E28" s="2">
+        <v>-0.12739825944900221</v>
       </c>
       <c r="F28">
-        <v>-0.124243119412208</v>
+        <v>-0.12739825944900221</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1024,11 +1034,11 @@
       <c r="D29" t="s">
         <v>11</v>
       </c>
-      <c r="E29">
-        <v>-0.1118654302613602</v>
+      <c r="E29" s="2">
+        <v>-0.12541873533406789</v>
       </c>
       <c r="F29">
-        <v>-0.1118654302613602</v>
+        <v>-0.12541873533406789</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1044,11 +1054,11 @@
       <c r="D30" t="s">
         <v>12</v>
       </c>
-      <c r="E30">
-        <v>-6.7523152266460551E-2</v>
+      <c r="E30" s="2">
+        <v>-0.17096151151190539</v>
       </c>
       <c r="F30">
-        <v>-6.7523152266460551E-2</v>
+        <v>-0.17096151151190539</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1064,11 +1074,11 @@
       <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="E31">
-        <v>-3.8293621235008901E-2</v>
+      <c r="E31" s="2">
+        <v>-0.1257254263545258</v>
       </c>
       <c r="F31">
-        <v>-3.8293621235008901E-2</v>
+        <v>-0.1257254263545258</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1085,10 +1095,10 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>-0.16186598031263921</v>
-      </c>
-      <c r="F32" s="2">
-        <v>-8.7211373137121795E-2</v>
+        <v>-0.1031159768732697</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-8.7706122326396407E-3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1105,10 +1115,10 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>-0.14552719457690941</v>
-      </c>
-      <c r="F33" s="2">
-        <v>-7.7579378012422318E-2</v>
+        <v>-0.1480034077540662</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-5.4157417456010659E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1125,10 +1135,10 @@
         <v>10</v>
       </c>
       <c r="E34">
-        <v>-0.124243119412208</v>
-      </c>
-      <c r="F34" s="2">
-        <v>-5.9691631319418459E-2</v>
+        <v>-0.12739825944900221</v>
+      </c>
+      <c r="F34" s="3">
+        <v>-4.6650357394289348E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1145,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="E35">
-        <v>-0.1118654302613602</v>
-      </c>
-      <c r="F35" s="2">
-        <v>-4.3625768342089088E-2</v>
+        <v>-0.12541873533406789</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-4.5390146525686743E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1165,10 +1175,10 @@
         <v>12</v>
       </c>
       <c r="E36">
-        <v>-6.7523152266460551E-2</v>
-      </c>
-      <c r="F36" s="2">
-        <v>-2.2329879073339498E-3</v>
+        <v>-0.17096151151190539</v>
+      </c>
+      <c r="F36" s="3">
+        <v>-6.6220451858885809E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1185,10 +1195,10 @@
         <v>13</v>
       </c>
       <c r="E37">
-        <v>-3.8293621235008901E-2</v>
-      </c>
-      <c r="F37" s="2">
-        <v>3.3119582675243731E-2</v>
+        <v>-0.1257254263545258</v>
+      </c>
+      <c r="F37" s="3">
+        <v>-1.804292058914703E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1205,10 +1215,10 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>-0.16186598031263921</v>
-      </c>
-      <c r="F38" s="3">
-        <v>-3.534884069317612E-2</v>
+        <v>-0.1031159768732697</v>
+      </c>
+      <c r="F38" s="4">
+        <v>3.9863838793115391E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1225,10 +1235,10 @@
         <v>9</v>
       </c>
       <c r="E39">
-        <v>-0.14552719457690941</v>
-      </c>
-      <c r="F39" s="3">
-        <v>-3.0675573394774999E-2</v>
+        <v>-0.1480034077540662</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1.7918139356853931E-3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1245,10 +1255,10 @@
         <v>10</v>
       </c>
       <c r="E40">
-        <v>-0.124243119412208</v>
-      </c>
-      <c r="F40" s="3">
-        <v>-1.7467282053120758E-2</v>
+        <v>-0.12739825944900221</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1.498653198781952E-3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1265,10 +1275,10 @@
         <v>11</v>
       </c>
       <c r="E41">
-        <v>-0.1118654302613602</v>
-      </c>
-      <c r="F41" s="3">
-        <v>-2.2349759921052041E-3</v>
+        <v>-0.12541873533406789</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2.1891722994515921E-3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1285,10 +1295,10 @@
         <v>12</v>
       </c>
       <c r="E42">
-        <v>-6.7523152266460551E-2</v>
-      </c>
-      <c r="F42" s="3">
-        <v>3.0784258923451598E-2</v>
+        <v>-0.17096151151190539</v>
+      </c>
+      <c r="F42" s="4">
+        <v>-2.8131800558950371E-3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1305,10 +1315,10 @@
         <v>13</v>
       </c>
       <c r="E43">
-        <v>-3.8293621235008901E-2</v>
-      </c>
-      <c r="F43" s="3">
-        <v>6.330625418449598E-2</v>
+        <v>-0.1257254263545258</v>
+      </c>
+      <c r="F43" s="4">
+        <v>3.8805485725066813E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1325,10 +1335,10 @@
         <v>8</v>
       </c>
       <c r="E44">
-        <v>-0.16186598031263921</v>
+        <v>-0.1031159768732697</v>
       </c>
       <c r="F44">
-        <v>-6.2783829808021876E-3</v>
+        <v>4.2787376203995198E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -1345,10 +1355,10 @@
         <v>9</v>
       </c>
       <c r="E45">
-        <v>-0.14552719457690941</v>
+        <v>-0.1480034077540662</v>
       </c>
       <c r="F45">
-        <v>-4.8157807239677108E-3</v>
+        <v>1.9844286421022431E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -1365,10 +1375,10 @@
         <v>10</v>
       </c>
       <c r="E46">
-        <v>-0.124243119412208</v>
+        <v>-0.12739825944900221</v>
       </c>
       <c r="F46">
-        <v>2.429928386685543E-3</v>
+        <v>1.7048772330211629E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1385,10 +1395,10 @@
         <v>11</v>
       </c>
       <c r="E47">
-        <v>-0.1118654302613602</v>
+        <v>-0.12541873533406789</v>
       </c>
       <c r="F47">
-        <v>1.230694678859112E-2</v>
+        <v>1.73192211413471E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1405,10 +1415,10 @@
         <v>12</v>
       </c>
       <c r="E48">
-        <v>-6.7523152266460551E-2</v>
+        <v>-0.17096151151190539</v>
       </c>
       <c r="F48">
-        <v>3.1528588225896333E-2</v>
+        <v>1.9260303897066681E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1425,10 +1435,10 @@
         <v>13</v>
       </c>
       <c r="E49">
-        <v>-3.8293621235008901E-2</v>
+        <v>-0.1257254263545258</v>
       </c>
       <c r="F49">
-        <v>5.2266393292747959E-2</v>
+        <v>4.4819792588115637E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Extension code/Forecasting models/Saved preds/roos.xlsx
+++ b/Extension code/Forecasting models/Saved preds/roos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeur-my.sharepoint.com/personal/594941jc_eur_nl/Documents/Desktop/BondRiskML/Extension code/Forecasting models/Saved preds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_426513BED3F0515C37592811595ED87656CD4578" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14CADA9B-CA90-4135-818A-6DFCA18CE2F6}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_0121F3BAD3F0D80F7F5B2211595ED87656CD0556" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5057CD5D-00C2-4EFA-8F2A-DE3FF6DE8A90}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <t>Regression</t>
   </si>
   <si>
-    <t>FWD</t>
+    <t>Macro</t>
   </si>
   <si>
     <t>2 y</t>
@@ -64,7 +64,7 @@
     <t>10 y</t>
   </si>
   <si>
-    <t>Macro</t>
+    <t>Diff Macro</t>
   </si>
 </sst>
 </file>
@@ -96,19 +96,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,14 +452,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -495,10 +492,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="2">
-        <v>-2.0256362565757909E-2</v>
+        <v>-8.6718517308349341E-2</v>
       </c>
       <c r="F2">
-        <v>-2.0256362565757909E-2</v>
+        <v>-8.6718517308349341E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -515,10 +512,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="2">
-        <v>-2.7458534682455401E-2</v>
+        <v>-0.16065015743601371</v>
       </c>
       <c r="F3">
-        <v>-2.7458534682455401E-2</v>
+        <v>-0.16065015743601371</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -535,10 +532,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>-4.2334293420800417E-2</v>
+        <v>-0.16204747881069831</v>
       </c>
       <c r="F4">
-        <v>-4.2334293420800417E-2</v>
+        <v>-0.16204747881069831</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -555,10 +552,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="2">
-        <v>-6.1520983103698468E-2</v>
+        <v>-4.4305515890824543E-2</v>
       </c>
       <c r="F5">
-        <v>-6.1520983103698468E-2</v>
+        <v>-4.4305515890824543E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -575,10 +572,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="2">
-        <v>-9.4519608981163517E-2</v>
+        <v>1.557368072007914E-2</v>
       </c>
       <c r="F6">
-        <v>-9.4519608981163517E-2</v>
+        <v>1.557368072007914E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -595,10 +592,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="2">
-        <v>-0.16019433341580541</v>
+        <v>3.4832389203050429E-2</v>
       </c>
       <c r="F7">
-        <v>-0.16019433341580541</v>
+        <v>3.4832389203050429E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -615,10 +612,10 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>-2.0256362565757909E-2</v>
+        <v>-8.6718517308349341E-2</v>
       </c>
       <c r="F8" s="2">
-        <v>3.9162651885734423E-2</v>
+        <v>-3.4687201216440762E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -635,10 +632,10 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>-2.7458534682455401E-2</v>
+        <v>-0.16065015743601371</v>
       </c>
       <c r="F9" s="2">
-        <v>3.0078080803734971E-2</v>
+        <v>-9.1849610512491964E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -655,10 +652,10 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <v>-4.2334293420800417E-2</v>
+        <v>-0.16204747881069831</v>
       </c>
       <c r="F10" s="2">
-        <v>1.5881838897594869E-2</v>
+        <v>-9.2700950739733168E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -675,10 +672,10 @@
         <v>11</v>
       </c>
       <c r="E11">
-        <v>-6.1520983103698468E-2</v>
+        <v>-4.4305515890824543E-2</v>
       </c>
       <c r="F11" s="2">
-        <v>-3.0172481735013519E-3</v>
+        <v>-4.7189212148697202E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -695,10 +692,10 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <v>-9.4519608981163517E-2</v>
+        <v>1.557368072007914E-2</v>
       </c>
       <c r="F12" s="2">
-        <v>-3.0899046757985719E-2</v>
+        <v>4.0129648583176913E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -715,10 +712,10 @@
         <v>13</v>
       </c>
       <c r="E13">
-        <v>-0.16019433341580541</v>
+        <v>3.4832389203050429E-2</v>
       </c>
       <c r="F13" s="2">
-        <v>-8.2396271429023171E-2</v>
+        <v>6.5269173626472332E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -735,10 +732,10 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>-2.0256362565757909E-2</v>
+        <v>-8.6718517308349341E-2</v>
       </c>
       <c r="F14" s="3">
-        <v>6.2345050463858083E-2</v>
+        <v>-2.8903429677464838E-3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -755,10 +752,10 @@
         <v>9</v>
       </c>
       <c r="E15">
-        <v>-2.7458534682455401E-2</v>
+        <v>-0.16065015743601371</v>
       </c>
       <c r="F15" s="3">
-        <v>5.3833375079541002E-2</v>
+        <v>-4.2141068631982533E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -775,10 +772,10 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>-4.2334293420800417E-2</v>
+        <v>-0.16204747881069831</v>
       </c>
       <c r="F16" s="3">
-        <v>4.2342931907193397E-2</v>
+        <v>-4.2577528247628622E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -795,10 +792,10 @@
         <v>11</v>
       </c>
       <c r="E17">
-        <v>-6.1520983103698468E-2</v>
+        <v>-4.4305515890824543E-2</v>
       </c>
       <c r="F17" s="3">
-        <v>2.6737493987180731E-2</v>
+        <v>1.5860862992252419E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -815,10 +812,10 @@
         <v>12</v>
       </c>
       <c r="E18">
-        <v>-9.4519608981163517E-2</v>
+        <v>1.557368072007914E-2</v>
       </c>
       <c r="F18" s="3">
-        <v>6.0610754799340638E-3</v>
+        <v>4.5719357750862777E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -835,10 +832,10 @@
         <v>13</v>
       </c>
       <c r="E19">
-        <v>-0.16019433341580541</v>
+        <v>3.4832389203050429E-2</v>
       </c>
       <c r="F19" s="3">
-        <v>-2.9764528530795031E-2</v>
+        <v>6.9609370233771339E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -855,10 +852,10 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>-2.0256362565757909E-2</v>
+        <v>-8.6718517308349341E-2</v>
       </c>
       <c r="F20">
-        <v>4.9290833168613379E-2</v>
+        <v>8.6720574377340265E-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -875,10 +872,10 @@
         <v>9</v>
       </c>
       <c r="E21">
-        <v>-2.7458534682455401E-2</v>
+        <v>-0.16065015743601371</v>
       </c>
       <c r="F21">
-        <v>4.3807348144962573E-2</v>
+        <v>-1.1524531794485199E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -895,10 +892,10 @@
         <v>10</v>
       </c>
       <c r="E22">
-        <v>-4.2334293420800417E-2</v>
+        <v>-0.16204747881069831</v>
       </c>
       <c r="F22">
-        <v>3.7048985607995077E-2</v>
+        <v>-1.167721133438393E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -915,10 +912,10 @@
         <v>11</v>
       </c>
       <c r="E23">
-        <v>-6.1520983103698468E-2</v>
+        <v>-4.4305515890824543E-2</v>
       </c>
       <c r="F23">
-        <v>2.7743243378347882E-2</v>
+        <v>1.7433836730542329E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -935,10 +932,10 @@
         <v>12</v>
       </c>
       <c r="E24">
-        <v>-9.4519608981163517E-2</v>
+        <v>1.557368072007914E-2</v>
       </c>
       <c r="F24">
-        <v>1.6360757732595928E-2</v>
+        <v>3.2342808223137183E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -955,10 +952,10 @@
         <v>13</v>
       </c>
       <c r="E25">
-        <v>-0.16019433341580541</v>
+        <v>3.4832389203050429E-2</v>
       </c>
       <c r="F25">
-        <v>-2.299104721120715E-3</v>
+        <v>4.7852979024947118E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -975,10 +972,10 @@
         <v>8</v>
       </c>
       <c r="E26" s="2">
-        <v>-0.1031159768732697</v>
+        <v>7.0861189491114862E-2</v>
       </c>
       <c r="F26">
-        <v>-0.1031159768732697</v>
+        <v>7.0861189491114862E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -995,10 +992,10 @@
         <v>9</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.1480034077540662</v>
+        <v>2.6776963755084541E-2</v>
       </c>
       <c r="F27">
-        <v>-0.1480034077540662</v>
+        <v>2.6776963755084541E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1015,10 +1012,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="2">
-        <v>-0.12739825944900221</v>
+        <v>1.9913420412356771E-2</v>
       </c>
       <c r="F28">
-        <v>-0.12739825944900221</v>
+        <v>1.9913420412356771E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1035,10 +1032,10 @@
         <v>11</v>
       </c>
       <c r="E29" s="2">
-        <v>-0.12541873533406789</v>
+        <v>1.4351677564782729E-2</v>
       </c>
       <c r="F29">
-        <v>-0.12541873533406789</v>
+        <v>1.4351677564782729E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1055,10 +1052,10 @@
         <v>12</v>
       </c>
       <c r="E30" s="2">
-        <v>-0.17096151151190539</v>
+        <v>2.37731554988807E-3</v>
       </c>
       <c r="F30">
-        <v>-0.17096151151190539</v>
+        <v>2.37731554988807E-3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1075,10 +1072,10 @@
         <v>13</v>
       </c>
       <c r="E31" s="2">
-        <v>-0.1257254263545258</v>
+        <v>2.2013466863607278E-2</v>
       </c>
       <c r="F31">
-        <v>-0.1257254263545258</v>
+        <v>2.2013466863607278E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1095,10 +1092,10 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>-0.1031159768732697</v>
+        <v>7.0861189491114862E-2</v>
       </c>
       <c r="F32" s="3">
-        <v>-8.7706122326396407E-3</v>
+        <v>0.10122375431612619</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1115,10 +1112,10 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>-0.1480034077540662</v>
+        <v>2.6776963755084541E-2</v>
       </c>
       <c r="F33" s="3">
-        <v>-5.4157417456010659E-2</v>
+        <v>6.6240525456253696E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1135,10 +1132,10 @@
         <v>10</v>
       </c>
       <c r="E34">
-        <v>-0.12739825944900221</v>
+        <v>1.9913420412356771E-2</v>
       </c>
       <c r="F34" s="3">
-        <v>-4.6650357394289348E-2</v>
+        <v>6.7759409216745725E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1155,10 +1152,10 @@
         <v>11</v>
       </c>
       <c r="E35">
-        <v>-0.12541873533406789</v>
+        <v>1.4351677564782729E-2</v>
       </c>
       <c r="F35" s="3">
-        <v>-4.5390146525686743E-2</v>
+        <v>6.7195765823916176E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1175,10 +1172,10 @@
         <v>12</v>
       </c>
       <c r="E36">
-        <v>-0.17096151151190539</v>
+        <v>2.37731554988807E-3</v>
       </c>
       <c r="F36" s="3">
-        <v>-6.6220451858885809E-2</v>
+        <v>6.0955922451027211E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1195,10 +1192,10 @@
         <v>13</v>
       </c>
       <c r="E37">
-        <v>-0.1257254263545258</v>
+        <v>2.2013466863607278E-2</v>
       </c>
       <c r="F37" s="3">
-        <v>-1.804292058914703E-2</v>
+        <v>7.9747644268628348E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1215,10 +1212,10 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>-0.1031159768732697</v>
+        <v>7.0861189491114862E-2</v>
       </c>
       <c r="F38" s="4">
-        <v>3.9863838793115391E-2</v>
+        <v>9.9534411009277624E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1235,10 +1232,10 @@
         <v>9</v>
       </c>
       <c r="E39">
-        <v>-0.1480034077540662</v>
+        <v>2.6776963755084541E-2</v>
       </c>
       <c r="F39" s="4">
-        <v>1.7918139356853931E-3</v>
+        <v>7.493221873079603E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1255,10 +1252,10 @@
         <v>10</v>
       </c>
       <c r="E40">
-        <v>-0.12739825944900221</v>
+        <v>1.9913420412356771E-2</v>
       </c>
       <c r="F40" s="4">
-        <v>1.498653198781952E-3</v>
+        <v>8.038916874948232E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1275,10 +1272,10 @@
         <v>11</v>
       </c>
       <c r="E41">
-        <v>-0.12541873533406789</v>
+        <v>1.4351677564782729E-2</v>
       </c>
       <c r="F41" s="4">
-        <v>2.1891722994515921E-3</v>
+        <v>8.2418515649496871E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1295,10 +1292,10 @@
         <v>12</v>
       </c>
       <c r="E42">
-        <v>-0.17096151151190539</v>
+        <v>2.37731554988807E-3</v>
       </c>
       <c r="F42" s="4">
-        <v>-2.8131800558950371E-3</v>
+        <v>8.0085905493092691E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1315,10 +1312,10 @@
         <v>13</v>
       </c>
       <c r="E43">
-        <v>-0.1257254263545258</v>
+        <v>2.2013466863607278E-2</v>
       </c>
       <c r="F43" s="4">
-        <v>3.8805485725066813E-2</v>
+        <v>9.5323458926367399E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1335,10 +1332,10 @@
         <v>8</v>
       </c>
       <c r="E44">
-        <v>-0.1031159768732697</v>
+        <v>7.0861189491114862E-2</v>
       </c>
       <c r="F44">
-        <v>4.2787376203995198E-2</v>
+        <v>6.579315957056886E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -1355,10 +1352,10 @@
         <v>9</v>
       </c>
       <c r="E45">
-        <v>-0.1480034077540662</v>
+        <v>2.6776963755084541E-2</v>
       </c>
       <c r="F45">
-        <v>1.9844286421022431E-2</v>
+        <v>5.2852043578711323E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -1375,10 +1372,10 @@
         <v>10</v>
       </c>
       <c r="E46">
-        <v>-0.12739825944900221</v>
+        <v>1.9913420412356771E-2</v>
       </c>
       <c r="F46">
-        <v>1.7048772330211629E-2</v>
+        <v>5.7802699010567227E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1395,10 +1392,10 @@
         <v>11</v>
       </c>
       <c r="E47">
-        <v>-0.12541873533406789</v>
+        <v>1.4351677564782729E-2</v>
       </c>
       <c r="F47">
-        <v>1.73192211413471E-2</v>
+        <v>6.0019927041524812E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1415,10 +1412,10 @@
         <v>12</v>
       </c>
       <c r="E48">
-        <v>-0.17096151151190539</v>
+        <v>2.37731554988807E-3</v>
       </c>
       <c r="F48">
-        <v>1.9260303897066681E-2</v>
+        <v>5.9767264676083509E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1435,10 +1432,10 @@
         <v>13</v>
       </c>
       <c r="E49">
-        <v>-0.1257254263545258</v>
+        <v>2.2013466863607278E-2</v>
       </c>
       <c r="F49">
-        <v>4.4819792588115637E-2</v>
+        <v>6.8740910836824543E-2</v>
       </c>
     </row>
   </sheetData>
